--- a/templates/metrologia/ejemplo.xlsx
+++ b/templates/metrologia/ejemplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F034A6-BEC2-4C82-AF57-2E4AB3D45C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F487843-C479-44E3-AEAE-FAC9C2E202FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92F233CF-B524-4A54-B391-7545C32DAF25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Certificado</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Chile</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Primario</t>
+  </si>
+  <si>
+    <t>Secundario</t>
+  </si>
+  <si>
+    <t>Vencido</t>
   </si>
 </sst>
 </file>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BD41EE-E4B4-4C08-B398-78B7E6346E27}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +463,7 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +482,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -490,8 +505,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -510,8 +528,11 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -529,6 +550,9 @@
       </c>
       <c r="F4" t="s">
         <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
